--- a/stock_price_data.xlsx
+++ b/stock_price_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eugene\Desktop\Dropbox\Public\python_excel_298\python_excel_lesson1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\user\desktop\305\l1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EB273F-DDA2-4975-944B-9503A7C7A7BE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1560" yWindow="-18210" windowWidth="38565" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1560" yWindow="-18210" windowWidth="38565" windowHeight="21150"/>
   </bookViews>
   <sheets>
     <sheet name="2330" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="weight3d">'2330'!$I$2:$I$4</definedName>
   </definedNames>
-  <calcPr calcId="179021" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>日期</t>
   </si>
@@ -170,13 +169,17 @@
   </si>
   <si>
     <t>3日加權移動平均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5日移動平均</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -202,12 +205,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -222,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -251,6 +260,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,12 +632,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -659,6 +671,9 @@
       <c r="E1" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="I1" s="1" t="s">
         <v>44</v>
       </c>
@@ -685,7 +700,9 @@
       <c r="B3" s="5">
         <v>224.5</v>
       </c>
-      <c r="C3"/>
+      <c r="C3">
+        <v>0</v>
+      </c>
       <c r="I3">
         <v>2</v>
       </c>
@@ -697,8 +714,15 @@
       <c r="B4" s="5">
         <v>233</v>
       </c>
-      <c r="C4"/>
-      <c r="D4" s="6"/>
+      <c r="C4">
+        <v>3.7861915367483297E-2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>227.33333333333334</v>
+      </c>
+      <c r="E4">
+        <v>451.83333333333331</v>
+      </c>
       <c r="I4">
         <v>3</v>
       </c>
@@ -710,8 +734,15 @@
       <c r="B5" s="5">
         <v>237.5</v>
       </c>
-      <c r="C5"/>
-      <c r="D5" s="6"/>
+      <c r="C5">
+        <v>1.9313304721030045E-2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>231.66666666666666</v>
+      </c>
+      <c r="E5">
+        <v>459</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -720,8 +751,18 @@
       <c r="B6" s="5">
         <v>237.5</v>
       </c>
-      <c r="C6"/>
-      <c r="D6" s="6"/>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>236</v>
+      </c>
+      <c r="E6">
+        <v>470.5</v>
+      </c>
+      <c r="F6">
+        <v>231.4</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -730,8 +771,18 @@
       <c r="B7" s="5">
         <v>238</v>
       </c>
-      <c r="C7"/>
-      <c r="D7" s="6"/>
+      <c r="C7">
+        <v>2.1052631578947368E-3</v>
+      </c>
+      <c r="D7" s="6">
+        <v>237.66666666666666</v>
+      </c>
+      <c r="E7">
+        <v>475.16666666666669</v>
+      </c>
+      <c r="F7">
+        <v>234.1</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -740,8 +791,18 @@
       <c r="B8" s="5">
         <v>235.5</v>
       </c>
-      <c r="C8"/>
-      <c r="D8" s="6"/>
+      <c r="C8">
+        <v>-1.050420168067227E-2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>237</v>
+      </c>
+      <c r="E8">
+        <v>474.66666666666669</v>
+      </c>
+      <c r="F8">
+        <v>236.3</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -750,8 +811,18 @@
       <c r="B9" s="5">
         <v>237.5</v>
       </c>
-      <c r="C9"/>
-      <c r="D9" s="6"/>
+      <c r="C9">
+        <v>8.4925690021231421E-3</v>
+      </c>
+      <c r="D9" s="6">
+        <v>237</v>
+      </c>
+      <c r="E9">
+        <v>474.16666666666669</v>
+      </c>
+      <c r="F9">
+        <v>237.2</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -760,8 +831,18 @@
       <c r="B10" s="5">
         <v>239</v>
       </c>
-      <c r="C10"/>
-      <c r="D10" s="6"/>
+      <c r="C10">
+        <v>6.3157894736842104E-3</v>
+      </c>
+      <c r="D10" s="6">
+        <v>237.33333333333334</v>
+      </c>
+      <c r="E10">
+        <v>473.5</v>
+      </c>
+      <c r="F10">
+        <v>237.5</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -770,8 +851,18 @@
       <c r="B11" s="5">
         <v>237.5</v>
       </c>
-      <c r="C11"/>
-      <c r="D11" s="6"/>
+      <c r="C11">
+        <v>-6.2761506276150627E-3</v>
+      </c>
+      <c r="D11" s="6">
+        <v>238</v>
+      </c>
+      <c r="E11">
+        <v>476</v>
+      </c>
+      <c r="F11">
+        <v>237.5</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -780,8 +871,18 @@
       <c r="B12" s="5">
         <v>239</v>
       </c>
-      <c r="C12"/>
-      <c r="D12" s="6"/>
+      <c r="C12">
+        <v>6.3157894736842104E-3</v>
+      </c>
+      <c r="D12" s="6">
+        <v>238.5</v>
+      </c>
+      <c r="E12">
+        <v>477</v>
+      </c>
+      <c r="F12">
+        <v>237.7</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -790,8 +891,18 @@
       <c r="B13" s="5">
         <v>238</v>
       </c>
-      <c r="C13"/>
-      <c r="D13" s="6"/>
+      <c r="C13">
+        <v>-4.1841004184100415E-3</v>
+      </c>
+      <c r="D13" s="6">
+        <v>238.16666666666666</v>
+      </c>
+      <c r="E13">
+        <v>476.16666666666669</v>
+      </c>
+      <c r="F13">
+        <v>238.2</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -800,8 +911,18 @@
       <c r="B14" s="5">
         <v>238</v>
       </c>
-      <c r="C14"/>
-      <c r="D14" s="6"/>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>238.33333333333334</v>
+      </c>
+      <c r="E14">
+        <v>477</v>
+      </c>
+      <c r="F14">
+        <v>238.3</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -810,8 +931,18 @@
       <c r="B15" s="5">
         <v>236</v>
       </c>
-      <c r="C15"/>
-      <c r="D15" s="6"/>
+      <c r="C15">
+        <v>-8.4033613445378148E-3</v>
+      </c>
+      <c r="D15" s="6">
+        <v>237.33333333333334</v>
+      </c>
+      <c r="E15">
+        <v>475.33333333333331</v>
+      </c>
+      <c r="F15">
+        <v>237.7</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -820,808 +951,1618 @@
       <c r="B16" s="5">
         <v>239</v>
       </c>
-      <c r="C16"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>1.2711864406779662E-2</v>
+      </c>
+      <c r="D16" s="6">
+        <v>237.66666666666666</v>
+      </c>
+      <c r="E16">
+        <v>475</v>
+      </c>
+      <c r="F16">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="5">
         <v>243</v>
       </c>
-      <c r="C17"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>1.6736401673640166E-2</v>
+      </c>
+      <c r="D17" s="6">
+        <v>239.33333333333334</v>
+      </c>
+      <c r="E17">
+        <v>476.33333333333331</v>
+      </c>
+      <c r="F17">
+        <v>238.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="5">
         <v>243</v>
       </c>
-      <c r="C18"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>241.66666666666666</v>
+      </c>
+      <c r="E18">
+        <v>482</v>
+      </c>
+      <c r="F18">
+        <v>239.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="5">
         <v>242.5</v>
       </c>
-      <c r="C19"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>-2.05761316872428E-3</v>
+      </c>
+      <c r="D19" s="6">
+        <v>242.83333333333334</v>
+      </c>
+      <c r="E19">
+        <v>485.83333333333331</v>
+      </c>
+      <c r="F19">
+        <v>240.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="5">
         <v>241</v>
       </c>
-      <c r="C20"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>-6.1855670103092781E-3</v>
+      </c>
+      <c r="D20" s="6">
+        <v>242.16666666666666</v>
+      </c>
+      <c r="E20">
+        <v>485</v>
+      </c>
+      <c r="F20">
+        <v>241.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="5">
         <v>239</v>
       </c>
-      <c r="C21"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>-8.2987551867219917E-3</v>
+      </c>
+      <c r="D21" s="6">
+        <v>240.83333333333334</v>
+      </c>
+      <c r="E21">
+        <v>482.83333333333331</v>
+      </c>
+      <c r="F21">
+        <v>241.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="5">
         <v>239.5</v>
       </c>
-      <c r="C22"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>2.0920502092050207E-3</v>
+      </c>
+      <c r="D22" s="6">
+        <v>239.83333333333334</v>
+      </c>
+      <c r="E22">
+        <v>480.16666666666669</v>
+      </c>
+      <c r="F22">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="5">
         <v>244</v>
       </c>
-      <c r="C23"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>1.8789144050104383E-2</v>
+      </c>
+      <c r="D23" s="6">
+        <v>240.83333333333334</v>
+      </c>
+      <c r="E23">
+        <v>480</v>
+      </c>
+      <c r="F23">
+        <v>241.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="5">
         <v>242.5</v>
       </c>
-      <c r="C24"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>-6.1475409836065573E-3</v>
+      </c>
+      <c r="D24" s="6">
+        <v>242</v>
+      </c>
+      <c r="E24">
+        <v>483</v>
+      </c>
+      <c r="F24">
+        <v>241.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="5">
         <v>241</v>
       </c>
-      <c r="C25"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>-6.1855670103092781E-3</v>
+      </c>
+      <c r="D25" s="6">
+        <v>242.5</v>
+      </c>
+      <c r="E25">
+        <v>486</v>
+      </c>
+      <c r="F25">
+        <v>241.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="5">
         <v>240.5</v>
       </c>
-      <c r="C26"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>-2.0746887966804979E-3</v>
+      </c>
+      <c r="D26" s="6">
+        <v>241.33333333333334</v>
+      </c>
+      <c r="E26">
+        <v>483.33333333333331</v>
+      </c>
+      <c r="F26">
+        <v>241.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="5">
         <v>239.5</v>
       </c>
-      <c r="C27"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>-4.1580041580041582E-3</v>
+      </c>
+      <c r="D27" s="6">
+        <v>240.33333333333334</v>
+      </c>
+      <c r="E27">
+        <v>481.16666666666669</v>
+      </c>
+      <c r="F27">
+        <v>241.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="5">
         <v>240</v>
       </c>
-      <c r="C28"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>2.0876826722338203E-3</v>
+      </c>
+      <c r="D28" s="6">
+        <v>240</v>
+      </c>
+      <c r="E28">
+        <v>480.16666666666669</v>
+      </c>
+      <c r="F28">
+        <v>240.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="5">
         <v>237.5</v>
       </c>
-      <c r="C29"/>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>-1.0416666666666666E-2</v>
+      </c>
+      <c r="D29" s="6">
+        <v>239</v>
+      </c>
+      <c r="E29">
+        <v>478.66666666666669</v>
+      </c>
+      <c r="F29">
+        <v>239.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="5">
         <v>238</v>
       </c>
-      <c r="C30"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>2.1052631578947368E-3</v>
+      </c>
+      <c r="D30" s="6">
+        <v>238.5</v>
+      </c>
+      <c r="E30">
+        <v>477.66666666666669</v>
+      </c>
+      <c r="F30">
+        <v>239.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="5">
         <v>241.5</v>
       </c>
-      <c r="C31"/>
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>1.4705882352941176E-2</v>
+      </c>
+      <c r="D31" s="6">
+        <v>239</v>
+      </c>
+      <c r="E31">
+        <v>476.66666666666669</v>
+      </c>
+      <c r="F31">
+        <v>239.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="5">
         <v>238.5</v>
       </c>
-      <c r="C32"/>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>-1.2422360248447204E-2</v>
+      </c>
+      <c r="D32" s="6">
+        <v>239.33333333333334</v>
+      </c>
+      <c r="E32">
+        <v>478.5</v>
+      </c>
+      <c r="F32">
+        <v>239.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="5">
         <v>243</v>
       </c>
-      <c r="C33"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>1.8867924528301886E-2</v>
+      </c>
+      <c r="D33" s="6">
+        <v>241</v>
+      </c>
+      <c r="E33">
+        <v>481.5</v>
+      </c>
+      <c r="F33">
+        <v>239.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="5">
         <v>242</v>
       </c>
-      <c r="C34"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>-4.11522633744856E-3</v>
+      </c>
+      <c r="D34" s="6">
+        <v>241.16666666666666</v>
+      </c>
+      <c r="E34">
+        <v>481.16666666666669</v>
+      </c>
+      <c r="F34">
+        <v>240.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="5">
         <v>242.5</v>
       </c>
-      <c r="C35"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>2.0661157024793389E-3</v>
+      </c>
+      <c r="D35" s="6">
+        <v>242.5</v>
+      </c>
+      <c r="E35">
+        <v>485.16666666666669</v>
+      </c>
+      <c r="F35">
+        <v>241.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="5">
         <v>244</v>
       </c>
-      <c r="C36"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>6.1855670103092781E-3</v>
+      </c>
+      <c r="D36" s="6">
+        <v>242.83333333333334</v>
+      </c>
+      <c r="E36">
+        <v>485</v>
+      </c>
+      <c r="F36">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="5">
         <v>237</v>
       </c>
-      <c r="C37"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>-2.8688524590163935E-2</v>
+      </c>
+      <c r="D37" s="6">
+        <v>241.16666666666666</v>
+      </c>
+      <c r="E37">
+        <v>484.16666666666669</v>
+      </c>
+      <c r="F37">
+        <v>241.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="5">
         <v>234</v>
       </c>
-      <c r="C38"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>-1.2658227848101266E-2</v>
+      </c>
+      <c r="D38" s="6">
+        <v>238.33333333333334</v>
+      </c>
+      <c r="E38">
+        <v>480</v>
+      </c>
+      <c r="F38">
+        <v>239.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="5">
         <v>234.5</v>
       </c>
-      <c r="C39"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>2.136752136752137E-3</v>
+      </c>
+      <c r="D39" s="6">
+        <v>235.16666666666666</v>
+      </c>
+      <c r="E39">
+        <v>471.16666666666669</v>
+      </c>
+      <c r="F39">
+        <v>238.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="5">
         <v>226</v>
       </c>
-      <c r="C40"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>-3.6247334754797439E-2</v>
+      </c>
+      <c r="D40" s="6">
+        <v>231.5</v>
+      </c>
+      <c r="E40">
+        <v>465.66666666666669</v>
+      </c>
+      <c r="F40">
+        <v>235.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>43070</v>
       </c>
       <c r="B41" s="5">
         <v>231</v>
       </c>
-      <c r="C41"/>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>2.2123893805309734E-2</v>
+      </c>
+      <c r="D41" s="6">
+        <v>230.5</v>
+      </c>
+      <c r="E41">
+        <v>462.16666666666669</v>
+      </c>
+      <c r="F41">
+        <v>232.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>43073</v>
       </c>
       <c r="B42" s="5">
         <v>234</v>
       </c>
-      <c r="C42"/>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>1.2987012987012988E-2</v>
+      </c>
+      <c r="D42" s="6">
+        <v>230.33333333333334</v>
+      </c>
+      <c r="E42">
+        <v>458</v>
+      </c>
+      <c r="F42">
+        <v>231.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>43074</v>
       </c>
       <c r="B43" s="5">
         <v>232.5</v>
       </c>
-      <c r="C43"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>-6.41025641025641E-3</v>
+      </c>
+      <c r="D43" s="6">
+        <v>232.5</v>
+      </c>
+      <c r="E43">
+        <v>464.5</v>
+      </c>
+      <c r="F43">
+        <v>231.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43075</v>
       </c>
       <c r="B44">
         <v>227</v>
       </c>
-      <c r="C44"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>-2.3655913978494623E-2</v>
+      </c>
+      <c r="D44" s="6">
+        <v>231.16666666666666</v>
+      </c>
+      <c r="E44">
+        <v>464.66666666666669</v>
+      </c>
+      <c r="F44">
+        <v>230.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43076</v>
       </c>
       <c r="B45">
         <v>226.5</v>
       </c>
-      <c r="C45"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>-2.2026431718061676E-3</v>
+      </c>
+      <c r="D45" s="6">
+        <v>228.66666666666666</v>
+      </c>
+      <c r="E45">
+        <v>459.33333333333331</v>
+      </c>
+      <c r="F45">
+        <v>230.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>43077</v>
       </c>
       <c r="B46">
         <v>227</v>
       </c>
-      <c r="C46"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>2.2075055187637969E-3</v>
+      </c>
+      <c r="D46" s="6">
+        <v>226.83333333333334</v>
+      </c>
+      <c r="E46">
+        <v>453.66666666666669</v>
+      </c>
+      <c r="F46">
+        <v>229.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B47">
         <v>231</v>
       </c>
-      <c r="C47"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>1.7621145374449341E-2</v>
+      </c>
+      <c r="D47" s="6">
+        <v>228.16666666666666</v>
+      </c>
+      <c r="E47">
+        <v>454.83333333333331</v>
+      </c>
+      <c r="F47">
+        <v>228.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B48">
         <v>231</v>
       </c>
-      <c r="C48"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" s="6">
+        <v>229.66666666666666</v>
+      </c>
+      <c r="E48">
+        <v>458</v>
+      </c>
+      <c r="F48">
+        <v>228.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B49" s="5">
         <v>227.5</v>
       </c>
-      <c r="C49"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>-1.5151515151515152E-2</v>
+      </c>
+      <c r="D49" s="6">
+        <v>229.83333333333334</v>
+      </c>
+      <c r="E49">
+        <v>460.83333333333331</v>
+      </c>
+      <c r="F49">
+        <v>228.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B50">
         <v>227.5</v>
       </c>
-      <c r="C50"/>
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" s="6">
+        <v>228.66666666666666</v>
+      </c>
+      <c r="E50">
+        <v>458.5</v>
+      </c>
+      <c r="F50">
+        <v>228.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>43082</v>
       </c>
       <c r="B51">
         <v>227.5</v>
       </c>
-      <c r="C51"/>
-      <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51" s="6">
+        <v>227.5</v>
+      </c>
+      <c r="E51">
+        <v>455</v>
+      </c>
+      <c r="F51">
+        <v>228.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>43083</v>
       </c>
       <c r="B52">
         <v>227.5</v>
       </c>
-      <c r="C52"/>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" s="6">
+        <v>227.5</v>
+      </c>
+      <c r="E52">
+        <v>455</v>
+      </c>
+      <c r="F52">
+        <v>228.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>43084</v>
       </c>
       <c r="B53">
         <v>227.5</v>
       </c>
-      <c r="C53"/>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" s="6">
+        <v>227.5</v>
+      </c>
+      <c r="E53">
+        <v>455</v>
+      </c>
+      <c r="F53">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>43087</v>
       </c>
       <c r="B54">
         <v>230.5</v>
       </c>
-      <c r="C54"/>
-      <c r="D54" s="6"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>1.3186813186813187E-2</v>
+      </c>
+      <c r="D54" s="6">
+        <v>228.5</v>
+      </c>
+      <c r="E54">
+        <v>456</v>
+      </c>
+      <c r="F54">
+        <v>228.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>43088</v>
       </c>
       <c r="B55">
         <v>224.5</v>
       </c>
-      <c r="C55"/>
-      <c r="D55" s="6"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>-2.6030368763557483E-2</v>
+      </c>
+      <c r="D55" s="6">
+        <v>227.5</v>
+      </c>
+      <c r="E55">
+        <v>456</v>
+      </c>
+      <c r="F55">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>43089</v>
       </c>
       <c r="B56">
         <v>225</v>
       </c>
-      <c r="C56"/>
-      <c r="D56" s="6"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>2.2271714922048997E-3</v>
+      </c>
+      <c r="D56" s="6">
+        <v>226.66666666666666</v>
+      </c>
+      <c r="E56">
+        <v>455.16666666666669</v>
+      </c>
+      <c r="F56">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>43090</v>
       </c>
       <c r="B57">
         <v>225</v>
       </c>
-      <c r="C57"/>
-      <c r="D57" s="6"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57" s="6">
+        <v>224.83333333333334</v>
+      </c>
+      <c r="E57">
+        <v>449.5</v>
+      </c>
+      <c r="F57">
+        <v>226.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>43091</v>
       </c>
       <c r="B58">
         <v>227.5</v>
       </c>
-      <c r="C58"/>
-      <c r="D58" s="6"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="D58" s="6">
+        <v>225.83333333333334</v>
+      </c>
+      <c r="E58">
+        <v>450.83333333333331</v>
+      </c>
+      <c r="F58">
+        <v>226.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>43094</v>
       </c>
       <c r="B59">
         <v>228.5</v>
       </c>
-      <c r="C59"/>
-      <c r="D59" s="6"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>4.3956043956043956E-3</v>
+      </c>
+      <c r="D59" s="6">
+        <v>227</v>
+      </c>
+      <c r="E59">
+        <v>452.83333333333331</v>
+      </c>
+      <c r="F59">
+        <v>226.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>43095</v>
       </c>
       <c r="B60">
         <v>226</v>
       </c>
-      <c r="C60"/>
-      <c r="D60" s="6"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>-1.0940919037199124E-2</v>
+      </c>
+      <c r="D60" s="6">
+        <v>227.33333333333334</v>
+      </c>
+      <c r="E60">
+        <v>455.16666666666669</v>
+      </c>
+      <c r="F60">
+        <v>226.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>43096</v>
       </c>
       <c r="B61">
         <v>225</v>
       </c>
-      <c r="C61"/>
-      <c r="D61" s="6"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>-4.4247787610619468E-3</v>
+      </c>
+      <c r="D61" s="6">
+        <v>226.5</v>
+      </c>
+      <c r="E61">
+        <v>454.16666666666669</v>
+      </c>
+      <c r="F61">
+        <v>226.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>43097</v>
       </c>
       <c r="B62">
         <v>226</v>
       </c>
-      <c r="C62"/>
-      <c r="D62" s="6"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>4.4444444444444444E-3</v>
+      </c>
+      <c r="D62" s="6">
+        <v>225.66666666666666</v>
+      </c>
+      <c r="E62">
+        <v>451.33333333333331</v>
+      </c>
+      <c r="F62">
+        <v>226.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>43098</v>
       </c>
       <c r="B63">
         <v>229.5</v>
       </c>
-      <c r="C63"/>
-      <c r="D63" s="6"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>1.5486725663716814E-2</v>
+      </c>
+      <c r="D63" s="6">
+        <v>226.83333333333334</v>
+      </c>
+      <c r="E63">
+        <v>452.16666666666669</v>
+      </c>
+      <c r="F63">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>43102</v>
       </c>
       <c r="B64">
         <v>232.5</v>
       </c>
-      <c r="C64"/>
-      <c r="D64" s="6"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>1.3071895424836602E-2</v>
+      </c>
+      <c r="D64" s="6">
+        <v>229.33333333333334</v>
+      </c>
+      <c r="E64">
+        <v>456.5</v>
+      </c>
+      <c r="F64">
+        <v>227.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>42739</v>
       </c>
       <c r="B65">
         <v>239.5</v>
       </c>
-      <c r="C65"/>
-      <c r="D65" s="6"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>3.0107526881720432E-2</v>
+      </c>
+      <c r="D65" s="6">
+        <v>233.83333333333334</v>
+      </c>
+      <c r="E65">
+        <v>464.33333333333331</v>
+      </c>
+      <c r="F65">
+        <v>230.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>43105</v>
       </c>
       <c r="B66">
         <v>240</v>
       </c>
-      <c r="C66"/>
-      <c r="D66" s="6"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>2.0876826722338203E-3</v>
+      </c>
+      <c r="D66" s="6">
+        <v>237.33333333333334</v>
+      </c>
+      <c r="E66">
+        <v>472.16666666666669</v>
+      </c>
+      <c r="F66">
+        <v>233.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>43108</v>
       </c>
       <c r="B67" s="5">
         <v>242</v>
       </c>
-      <c r="C67"/>
-      <c r="D67" s="6"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="D67" s="6">
+        <v>240.5</v>
+      </c>
+      <c r="E67">
+        <v>480.16666666666669</v>
+      </c>
+      <c r="F67">
+        <v>236.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>43109</v>
       </c>
       <c r="B68" s="5">
         <v>242</v>
       </c>
-      <c r="C68"/>
-      <c r="D68" s="6"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68" s="6">
+        <v>241.33333333333334</v>
+      </c>
+      <c r="E68">
+        <v>482</v>
+      </c>
+      <c r="F68">
+        <v>239.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>43110</v>
       </c>
       <c r="B69" s="5">
         <v>236.5</v>
       </c>
-      <c r="C69"/>
-      <c r="D69" s="6"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>-2.2727272727272728E-2</v>
+      </c>
+      <c r="D69" s="6">
+        <v>240.16666666666666</v>
+      </c>
+      <c r="E69">
+        <v>482.16666666666669</v>
+      </c>
+      <c r="F69">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>43111</v>
       </c>
       <c r="B70" s="5">
         <v>235</v>
       </c>
-      <c r="C70"/>
-      <c r="D70" s="6"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>-6.3424947145877377E-3</v>
+      </c>
+      <c r="D70" s="6">
+        <v>237.83333333333334</v>
+      </c>
+      <c r="E70">
+        <v>478</v>
+      </c>
+      <c r="F70">
+        <v>239.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>43112</v>
       </c>
       <c r="B71" s="5">
         <v>237</v>
       </c>
-      <c r="C71"/>
-      <c r="D71" s="6"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>8.5106382978723406E-3</v>
+      </c>
+      <c r="D71" s="6">
+        <v>236.16666666666666</v>
+      </c>
+      <c r="E71">
+        <v>472.16666666666669</v>
+      </c>
+      <c r="F71">
+        <v>238.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>43115</v>
       </c>
       <c r="B72" s="5">
         <v>240</v>
       </c>
-      <c r="C72"/>
-      <c r="D72" s="6"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>1.2658227848101266E-2</v>
+      </c>
+      <c r="D72" s="6">
+        <v>237.33333333333334</v>
+      </c>
+      <c r="E72">
+        <v>473</v>
+      </c>
+      <c r="F72">
+        <v>238.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>43116</v>
       </c>
       <c r="B73" s="5">
         <v>240.5</v>
       </c>
-      <c r="C73"/>
-      <c r="D73" s="6"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="D73" s="6">
+        <v>239.16666666666666</v>
+      </c>
+      <c r="E73">
+        <v>477.16666666666669</v>
+      </c>
+      <c r="F73">
+        <v>237.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>43117</v>
       </c>
       <c r="B74" s="5">
         <v>242</v>
       </c>
-      <c r="C74"/>
-      <c r="D74" s="6"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>6.2370062370062374E-3</v>
+      </c>
+      <c r="D74" s="6">
+        <v>240.83333333333334</v>
+      </c>
+      <c r="E74">
+        <v>481</v>
+      </c>
+      <c r="F74">
+        <v>238.9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>43118</v>
       </c>
       <c r="B75" s="5">
         <v>248.5</v>
       </c>
-      <c r="C75"/>
-      <c r="D75" s="6"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>2.6859504132231406E-2</v>
+      </c>
+      <c r="D75" s="6">
+        <v>243.66666666666666</v>
+      </c>
+      <c r="E75">
+        <v>484.66666666666669</v>
+      </c>
+      <c r="F75">
+        <v>241.6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>43119</v>
       </c>
       <c r="B76" s="5">
         <v>255.5</v>
       </c>
-      <c r="C76"/>
-      <c r="D76" s="6"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>2.8169014084507043E-2</v>
+      </c>
+      <c r="D76" s="6">
+        <v>248.66666666666666</v>
+      </c>
+      <c r="E76">
+        <v>492.83333333333331</v>
+      </c>
+      <c r="F76">
+        <v>245.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>43122</v>
       </c>
       <c r="B77" s="5">
         <v>261.5</v>
       </c>
-      <c r="C77"/>
-      <c r="D77" s="6"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>2.3483365949119372E-2</v>
+      </c>
+      <c r="D77" s="6">
+        <v>255.16666666666666</v>
+      </c>
+      <c r="E77">
+        <v>506</v>
+      </c>
+      <c r="F77">
+        <v>249.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>43123</v>
       </c>
       <c r="B78" s="5">
         <v>266</v>
       </c>
-      <c r="C78"/>
-      <c r="D78" s="6"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>1.7208413001912046E-2</v>
+      </c>
+      <c r="D78" s="6">
+        <v>261</v>
+      </c>
+      <c r="E78">
+        <v>518.5</v>
+      </c>
+      <c r="F78">
+        <v>254.7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>43124</v>
       </c>
       <c r="B79" s="5">
         <v>258</v>
       </c>
-      <c r="C79"/>
-      <c r="D79" s="6"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>-3.007518796992481E-2</v>
+      </c>
+      <c r="D79" s="6">
+        <v>261.83333333333331</v>
+      </c>
+      <c r="E79">
+        <v>524.83333333333337</v>
+      </c>
+      <c r="F79">
+        <v>257.89999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>43125</v>
       </c>
       <c r="B80" s="5">
         <v>258</v>
       </c>
-      <c r="C80"/>
-      <c r="D80" s="6"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80" s="6">
+        <v>260.66666666666669</v>
+      </c>
+      <c r="E80">
+        <v>524</v>
+      </c>
+      <c r="F80">
+        <v>259.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>43126</v>
       </c>
       <c r="B81" s="5">
         <v>255</v>
       </c>
-      <c r="C81"/>
-      <c r="D81" s="6"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>-1.1627906976744186E-2</v>
+      </c>
+      <c r="D81" s="6">
+        <v>257</v>
+      </c>
+      <c r="E81">
+        <v>515</v>
+      </c>
+      <c r="F81">
+        <v>259.7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>43129</v>
       </c>
       <c r="B82" s="5">
         <v>258.5</v>
       </c>
-      <c r="C82"/>
-      <c r="D82" s="6"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>1.3725490196078431E-2</v>
+      </c>
+      <c r="D82" s="6">
+        <v>257.16666666666669</v>
+      </c>
+      <c r="E82">
+        <v>514.16666666666663</v>
+      </c>
+      <c r="F82">
+        <v>259.10000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>43130</v>
       </c>
       <c r="B83" s="5">
         <v>253</v>
       </c>
-      <c r="C83"/>
-      <c r="D83" s="6"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>-2.1276595744680851E-2</v>
+      </c>
+      <c r="D83" s="6">
+        <v>255.5</v>
+      </c>
+      <c r="E83">
+        <v>511.66666666666669</v>
+      </c>
+      <c r="F83">
+        <v>256.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>43131</v>
       </c>
       <c r="B84" s="5">
         <v>255</v>
       </c>
-      <c r="C84"/>
-      <c r="D84" s="6"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>7.9051383399209481E-3</v>
+      </c>
+      <c r="D84" s="6">
+        <v>255.5</v>
+      </c>
+      <c r="E84">
+        <v>512.16666666666663</v>
+      </c>
+      <c r="F84">
+        <v>255.9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>43132</v>
       </c>
       <c r="B85" s="5">
         <v>259.5</v>
       </c>
-      <c r="C85"/>
-      <c r="D85" s="6"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>1.7647058823529412E-2</v>
+      </c>
+      <c r="D85" s="6">
+        <v>255.83333333333334</v>
+      </c>
+      <c r="E85">
+        <v>509.5</v>
+      </c>
+      <c r="F85">
+        <v>256.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>43133</v>
       </c>
       <c r="B86" s="5">
         <v>259.5</v>
       </c>
-      <c r="C86"/>
-      <c r="D86" s="6"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86" s="6">
+        <v>258</v>
+      </c>
+      <c r="E86">
+        <v>514.5</v>
+      </c>
+      <c r="F86">
+        <v>257.10000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>43136</v>
       </c>
       <c r="B87" s="5">
         <v>253</v>
       </c>
-      <c r="C87"/>
-      <c r="D87" s="6"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>-2.5048169556840076E-2</v>
+      </c>
+      <c r="D87" s="6">
+        <v>257.33333333333331</v>
+      </c>
+      <c r="E87">
+        <v>516.83333333333337</v>
+      </c>
+      <c r="F87">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>43137</v>
       </c>
       <c r="B88" s="5">
         <v>239</v>
       </c>
-      <c r="C88"/>
-      <c r="D88" s="6"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>-5.533596837944664E-2</v>
+      </c>
+      <c r="D88" s="6">
+        <v>250.5</v>
+      </c>
+      <c r="E88">
+        <v>507.83333333333331</v>
+      </c>
+      <c r="F88">
+        <v>253.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>43138</v>
       </c>
       <c r="B89" s="5">
         <v>240</v>
       </c>
-      <c r="C89"/>
-      <c r="D89" s="6"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>4.1841004184100415E-3</v>
+      </c>
+      <c r="D89" s="6">
+        <v>244</v>
+      </c>
+      <c r="E89">
+        <v>492.33333333333331</v>
+      </c>
+      <c r="F89">
+        <v>250.2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>43139</v>
       </c>
       <c r="B90" s="5">
         <v>238.5</v>
       </c>
-      <c r="C90"/>
-      <c r="D90" s="6"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>-6.2500000000000003E-3</v>
+      </c>
+      <c r="D90" s="6">
+        <v>239.16666666666666</v>
+      </c>
+      <c r="E90">
+        <v>478.5</v>
+      </c>
+      <c r="F90">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>43140</v>
       </c>
       <c r="B91" s="5">
         <v>232.5</v>
       </c>
-      <c r="C91"/>
-      <c r="D91" s="6"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>-2.5157232704402517E-2</v>
+      </c>
+      <c r="D91" s="6">
+        <v>237</v>
+      </c>
+      <c r="E91">
+        <v>476.5</v>
+      </c>
+      <c r="F91">
+        <v>240.6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>43143</v>
       </c>
       <c r="B92" s="5">
         <v>236.5</v>
       </c>
-      <c r="C92"/>
-      <c r="D92" s="6"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>1.7204301075268817E-2</v>
+      </c>
+      <c r="D92" s="6">
+        <v>235.83333333333334</v>
+      </c>
+      <c r="E92">
+        <v>472.33333333333331</v>
+      </c>
+      <c r="F92">
+        <v>237.3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>43152</v>
       </c>
       <c r="B93" s="5">
         <v>242.5</v>
       </c>
-      <c r="C93"/>
-      <c r="D93" s="6"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>2.5369978858350951E-2</v>
+      </c>
+      <c r="D93" s="6">
+        <v>237.16666666666666</v>
+      </c>
+      <c r="E93">
+        <v>471</v>
+      </c>
+      <c r="F93">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>43153</v>
       </c>
       <c r="B94" s="5">
         <v>239.5</v>
       </c>
-      <c r="C94"/>
-      <c r="D94" s="6"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>-1.2371134020618556E-2</v>
+      </c>
+      <c r="D94" s="6">
+        <v>239.5</v>
+      </c>
+      <c r="E94">
+        <v>478</v>
+      </c>
+      <c r="F94">
+        <v>237.9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>43154</v>
       </c>
       <c r="B95" s="5">
         <v>245</v>
       </c>
-      <c r="C95"/>
-      <c r="D95" s="6"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="4">
+      <c r="C95">
+        <v>2.2964509394572025E-2</v>
+      </c>
+      <c r="D95" s="6">
+        <v>242.33333333333334</v>
+      </c>
+      <c r="E95">
+        <v>483.83333333333331</v>
+      </c>
+      <c r="F95">
+        <v>239.2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="11">
         <v>43157</v>
       </c>
       <c r="B96" s="5">
         <v>246.5</v>
       </c>
-      <c r="C96"/>
-      <c r="D96" s="6"/>
+      <c r="C96">
+        <v>6.1224489795918364E-3</v>
+      </c>
+      <c r="D96" s="6">
+        <v>243.66666666666666</v>
+      </c>
+      <c r="E96">
+        <v>485</v>
+      </c>
+      <c r="F96">
+        <v>242</v>
+      </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
@@ -1659,7 +2600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CE7F0A-19C5-45B2-B982-57BC1D20798C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
